--- a/Module4/data.xlsx
+++ b/Module4/data.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,7 +335,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,7 +348,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1">
         <v>44901</v>
@@ -363,7 +359,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>44902</v>
@@ -374,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>44903</v>
@@ -385,7 +381,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <v>44904</v>
@@ -396,7 +392,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>44905</v>
@@ -407,7 +403,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1">
         <v>44906</v>
@@ -418,7 +414,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1">
         <v>44907</v>
@@ -429,7 +425,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <v>44908</v>
@@ -440,7 +436,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1">
         <v>44909</v>
@@ -451,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1">
         <v>44910</v>
